--- a/docs/Sentences.xlsx
+++ b/docs/Sentences.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9930" activeTab="1" xr2:uid="{4F2C452F-5675-4388-95FD-FC4910B6735A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9930" activeTab="2" xr2:uid="{4F2C452F-5675-4388-95FD-FC4910B6735A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentences" sheetId="1" r:id="rId1"/>
     <sheet name="Questions" sheetId="2" r:id="rId2"/>
+    <sheet name="Classes" sheetId="4" r:id="rId3"/>
+    <sheet name="Commands" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Signal word</t>
   </si>
@@ -166,13 +168,103 @@
   </si>
   <si>
     <t>For example chair with/without other objects</t>
+  </si>
+  <si>
+    <t>Repeat answer</t>
+  </si>
+  <si>
+    <t>Stop repeating</t>
+  </si>
+  <si>
+    <t>Stop answering</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Answer to previous question is generated until stopped</t>
+  </si>
+  <si>
+    <t>Be quiet</t>
+  </si>
+  <si>
+    <t>Speak to me</t>
+  </si>
+  <si>
+    <t>Output speech is off</t>
+  </si>
+  <si>
+    <t>Output speech is on</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Aeroplane</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Boat</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Dining table</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Motorbike</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Potted plant</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>TV monitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +272,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +329,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -237,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -245,6 +356,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -675,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8D3E38-C307-475F-9BF0-A676063C9DBD}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +812,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
@@ -805,6 +919,189 @@
       </c>
       <c r="C11" t="s">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447F3EC2-C864-4A43-9077-5AAA8C205945}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BEA63A-18D2-48F3-818E-C91F138EEB86}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Sentences.xlsx
+++ b/docs/Sentences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9930" activeTab="2" xr2:uid="{4F2C452F-5675-4388-95FD-FC4910B6735A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9930" xr2:uid="{4F2C452F-5675-4388-95FD-FC4910B6735A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentences" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460905D5-F01C-4617-A74F-8B231ED61C83}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447F3EC2-C864-4A43-9077-5AAA8C205945}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
